--- a/xlsx/威廉·索默赛特·毛姆_intext.xlsx
+++ b/xlsx/威廉·索默赛特·毛姆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>威廉·索默赛特·毛姆</t>
   </si>
@@ -29,7 +29,7 @@
     <t>法国</t>
   </si>
   <si>
-    <t>政策_政策_美國_威廉·索默赛特·毛姆</t>
+    <t>政策_政策_美国_威廉·索默赛特·毛姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%96%AF</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7%E7%9A%84%E6%9E%B7%E9%8E%96</t>
   </si>
   <si>
-    <t>人性的枷鎖</t>
+    <t>人性的枷锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E9%8B%92</t>
   </si>
   <si>
-    <t>刀鋒</t>
+    <t>刀锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E4%BA%AE%E5%92%8C%E5%85%AD%E4%BE%BF%E5%A3%AB</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD%E5%8B%B3%E4%BD%8D</t>
   </si>
   <si>
-    <t>名譽勳位</t>
+    <t>名誉勳位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA%E5%AE%B6</t>
   </si>
   <si>
-    <t>小說家</t>
+    <t>小说家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
-    <t>劇作家</t>
+    <t>剧作家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -113,13 +113,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>大使館</t>
+    <t>大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -137,25 +134,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E8%97%8D%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>蔚藍海岸</t>
+    <t>蔚蓝海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91</t>
   </si>
   <si>
-    <t>婦產科</t>
+    <t>妇产科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>醫生</t>
+    <t>医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%A7%86%E6%96%87%E5%AD%A6%E5%A5%96</t>
@@ -173,37 +167,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%81%E5%A4%A7%E5%B0%8F%E8%AA%AA%E5%AE%B6%E5%8F%8A%E5%85%B6%E4%BB%A3%E8%A1%A8%E4%BD%9C</t>
   </si>
   <si>
-    <t>世界十大小說家及其代表作</t>
+    <t>世界十大小说家及其代表作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD%E8%88%87%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>戰爭與和平</t>
+    <t>战争与和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>托爾斯泰</t>
+    <t>托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%80%81%E9%A0%AD</t>
   </si>
   <si>
-    <t>高老頭</t>
+    <t>高老头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E6%89%8E%E5%85%8B</t>
   </si>
   <si>
-    <t>巴爾扎克</t>
+    <t>巴尔扎克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E7%93%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>湯姆·瓊斯</t>
+    <t>汤姆·琼斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8F%B2%E5%B0%94%E4%B8%81</t>
@@ -215,31 +209,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B2%E6%85%A2%E8%88%87%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>傲慢與偏見</t>
+    <t>傲慢与偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%C2%B7%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>珍·奧斯汀</t>
+    <t>珍·奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%88%87%E9%BB%91</t>
   </si>
   <si>
-    <t>紅與黑</t>
+    <t>红与黑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B9%AF%E9%81%94%E7%88%BE</t>
   </si>
   <si>
-    <t>斯湯達爾</t>
+    <t>斯汤达尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%86%E5%93%AE%E5%B1%B1%E8%8E%8A</t>
   </si>
   <si>
-    <t>咆哮山莊</t>
+    <t>咆哮山庄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%9C%9C%E8%8E%89%C2%B7%E5%8B%83%E6%9C%97%E7%89%B9</t>
@@ -257,25 +251,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A8%93%E6%8B%9C</t>
   </si>
   <si>
-    <t>福樓拜</t>
+    <t>福楼拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E7%A7%91%E6%B3%A2%E8%8F%B2%E7%88%BE</t>
   </si>
   <si>
-    <t>大衛·科波菲爾</t>
+    <t>大卫·科波菲尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E7%8B%84%E6%9B%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·狄更斯</t>
+    <t>查尔斯·狄更斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%A6%AC%E4%BD%90%E5%A4%AB%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>卡拉馬佐夫兄弟</t>
+    <t>卡拉马佐夫兄弟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%80%E6%80%9D%E5%A6%A5%E8%80%B6%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
@@ -287,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%AF%A8%E8%A8%98</t>
   </si>
   <si>
-    <t>白鯨記</t>
+    <t>白鲸记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>赫爾曼·梅爾維爾</t>
+    <t>赫尔曼·梅尔维尔</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B4%A2%E9%BB%98%E8%B3%BD%E7%89%B9%C2%B7%E6%AF%9B%E5%A7%86</t>
   </si>
   <si>
-    <t>q-威廉·索默賽特·毛姆</t>
+    <t>q-威廉·索默赛特·毛姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -335,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF%E7%B6%B2%E8%B7%AF%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>百老匯網路資料庫</t>
+    <t>百老汇网路资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -395,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E9%A6%AC%E6%B4%9B</t>
   </si>
   <si>
-    <t>克里斯多福·馬洛</t>
+    <t>克里斯多福·马洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9A</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E7%90%86%E6%9F%A5%E6%A3%AE</t>
   </si>
   <si>
-    <t>塞繆爾·理查森</t>
+    <t>塞缪尔·理查森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%AF%94%E4%BA%9E%E6%96%AF%C2%B7%E6%96%AF%E6%91%A9%E8%90%8A%E7%89%B9</t>
   </si>
   <si>
-    <t>托比亞斯·斯摩萊特</t>
+    <t>托比亚斯·斯摩莱特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%93%A5%E5%B0%94%E6%96%AF%E5%AF%86</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E8%98%AD%E5%A7%86</t>
   </si>
   <si>
-    <t>查爾斯·蘭姆</t>
+    <t>查尔斯·兰姆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thomas_De_Quincey</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E5%B7%B4%E7%89%B9%E5%8B%92</t>
   </si>
   <si>
-    <t>塞繆爾·巴特勒</t>
+    <t>塞缪尔·巴特勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E5%93%88%E4%BB%A3</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%8D%97%C2%B7%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>柯南·道爾</t>
+    <t>柯南·道尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A%C2%B7E%C2%B7%E8%B1%AA%E6%96%AF%E6%9B%BC</t>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%C2%B7%E9%A6%AC%E5%A4%9A%E5%85%8B%E6%96%AF%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>福特·馬多克斯·福特</t>
+    <t>福特·马多克斯·福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%C2%B7%E6%A2%85%E5%B0%94</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E4%BA%9E%E6%96%AF%C2%B7%E5%8D%A1%E5%85%A7%E8%92%82</t>
   </si>
   <si>
-    <t>埃利亞斯·卡內蒂</t>
+    <t>埃利亚斯·卡内蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E5%BA%93%E6%96%AF%E5%8B%92</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8B%92%E5%8D%A1%E9%9B%B7</t>
   </si>
   <si>
-    <t>約翰·勒卡雷</t>
+    <t>约翰·勒卡雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V%C2%B7S%C2%B7%E5%A5%88%E4%BF%9D%E5%B0%94</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E6%99%AE%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>菲利普·普爾曼</t>
+    <t>菲利普·普尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E6%9B%BC%C2%B7%E9%B2%81%E8%A5%BF%E8%BF%AA</t>
@@ -1972,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1998,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2027,10 +2021,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2056,10 +2050,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2085,10 +2079,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2114,10 +2108,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2143,10 +2137,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2172,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2230,10 +2224,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -2259,10 +2253,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2288,10 +2282,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2317,10 +2311,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2346,10 +2340,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2375,10 +2369,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2404,10 +2398,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2433,10 +2427,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2462,10 +2456,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2491,10 +2485,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2520,10 +2514,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2549,10 +2543,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2578,10 +2572,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2607,10 +2601,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2636,10 +2630,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2665,10 +2659,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2694,10 +2688,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2723,10 +2717,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2752,10 +2746,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2781,10 +2775,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2810,10 +2804,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2839,10 +2833,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2868,10 +2862,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2897,10 +2891,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2926,10 +2920,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2955,10 +2949,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2984,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3013,10 +3007,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3042,10 +3036,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3071,10 +3065,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3100,10 +3094,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3129,10 +3123,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3158,10 +3152,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3187,10 +3181,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3216,10 +3210,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3245,10 +3239,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3274,10 +3268,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3303,10 +3297,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3332,10 +3326,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3361,10 +3355,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3390,10 +3384,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3419,10 +3413,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3448,10 +3442,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3477,10 +3471,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3506,10 +3500,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3535,10 +3529,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3564,10 +3558,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3593,10 +3587,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3622,10 +3616,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3651,10 +3645,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3680,10 +3674,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3709,10 +3703,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3738,10 +3732,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3767,10 +3761,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3796,10 +3790,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3825,10 +3819,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3854,10 +3848,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3883,10 +3877,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3912,10 +3906,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3941,10 +3935,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3970,10 +3964,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3999,10 +3993,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4028,10 +4022,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4057,10 +4051,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4086,10 +4080,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4115,10 +4109,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4144,10 +4138,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4173,10 +4167,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4202,10 +4196,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4231,10 +4225,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4260,10 +4254,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4289,10 +4283,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4318,10 +4312,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4347,10 +4341,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4376,10 +4370,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4405,10 +4399,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4434,10 +4428,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4463,10 +4457,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4492,10 +4486,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4521,10 +4515,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4550,10 +4544,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4579,10 +4573,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4608,10 +4602,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4637,10 +4631,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4666,10 +4660,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4695,10 +4689,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4724,10 +4718,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4753,10 +4747,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4782,10 +4776,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4811,10 +4805,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4840,10 +4834,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4869,10 +4863,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4898,10 +4892,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4927,10 +4921,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4956,10 +4950,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4985,10 +4979,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5014,10 +5008,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5043,10 +5037,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5072,10 +5066,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5101,10 +5095,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5130,10 +5124,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5159,10 +5153,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5188,10 +5182,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5217,10 +5211,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5246,10 +5240,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5275,10 +5269,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5304,10 +5298,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5333,10 +5327,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5362,10 +5356,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5391,10 +5385,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5420,10 +5414,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5449,10 +5443,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5478,10 +5472,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5507,10 +5501,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5536,10 +5530,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5565,10 +5559,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5594,10 +5588,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5623,10 +5617,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5652,10 +5646,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5681,10 +5675,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5710,10 +5704,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5739,10 +5733,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5768,10 +5762,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5797,10 +5791,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5826,10 +5820,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5855,10 +5849,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5884,10 +5878,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5913,10 +5907,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5942,10 +5936,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5971,10 +5965,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6000,10 +5994,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6029,10 +6023,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6058,10 +6052,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6087,10 +6081,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6116,10 +6110,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6145,10 +6139,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6174,10 +6168,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6203,10 +6197,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6232,10 +6226,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6261,10 +6255,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6290,10 +6284,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6319,10 +6313,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6348,10 +6342,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6377,10 +6371,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6406,10 +6400,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6435,10 +6429,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6464,10 +6458,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6493,10 +6487,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6522,10 +6516,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6551,10 +6545,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6580,10 +6574,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6609,10 +6603,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6638,10 +6632,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6667,10 +6661,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6696,10 +6690,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6725,10 +6719,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6754,10 +6748,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6783,10 +6777,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6812,10 +6806,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6841,10 +6835,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6870,10 +6864,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6899,10 +6893,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6928,10 +6922,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6957,10 +6951,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6986,10 +6980,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7015,10 +7009,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7044,10 +7038,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7073,10 +7067,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>9</v>
@@ -7102,10 +7096,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>381</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7131,10 +7125,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
